--- a/cable_data/new4.xlsx
+++ b/cable_data/new4.xlsx
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="136">
   <si>
     <t>GROUND</t>
   </si>
@@ -10166,8 +10166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B39" sqref="A39:B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -11028,12 +11028,8 @@
       <c r="H38" s="16"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>0</v>
-      </c>
+      <c r="A39" s="14"/>
+      <c r="B39" s="12"/>
       <c r="C39" s="13" t="s">
         <v>50</v>
       </c>
@@ -11054,12 +11050,8 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>80</v>
-      </c>
+      <c r="A40" s="7"/>
+      <c r="B40" s="11"/>
       <c r="C40" s="6" t="s">
         <v>48</v>
       </c>
@@ -11080,12 +11072,8 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B41" s="11" t="s">
-        <v>78</v>
-      </c>
+      <c r="A41" s="7"/>
+      <c r="B41" s="11"/>
       <c r="C41" s="8" t="s">
         <v>45</v>
       </c>
@@ -11106,12 +11094,8 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B42" s="11" t="s">
-        <v>0</v>
-      </c>
+      <c r="A42" s="7"/>
+      <c r="B42" s="11"/>
       <c r="C42" s="6" t="s">
         <v>42</v>
       </c>
@@ -11132,12 +11116,8 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B43" s="11" t="s">
-        <v>75</v>
-      </c>
+      <c r="A43" s="7"/>
+      <c r="B43" s="11"/>
       <c r="C43" s="8" t="s">
         <v>40</v>
       </c>
@@ -11158,12 +11138,8 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B44" s="11" t="s">
-        <v>73</v>
-      </c>
+      <c r="A44" s="7"/>
+      <c r="B44" s="11"/>
       <c r="C44" s="6" t="s">
         <v>37</v>
       </c>
@@ -11184,12 +11160,8 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B45" s="11" t="s">
-        <v>0</v>
-      </c>
+      <c r="A45" s="7"/>
+      <c r="B45" s="11"/>
       <c r="C45" s="8" t="s">
         <v>34</v>
       </c>
@@ -11210,12 +11182,8 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B46" s="11" t="s">
-        <v>70</v>
-      </c>
+      <c r="A46" s="7"/>
+      <c r="B46" s="11"/>
       <c r="C46" s="6" t="s">
         <v>32</v>
       </c>
@@ -11236,12 +11204,8 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B47" s="11" t="s">
-        <v>68</v>
-      </c>
+      <c r="A47" s="7"/>
+      <c r="B47" s="11"/>
       <c r="C47" s="8" t="s">
         <v>29</v>
       </c>
@@ -11262,12 +11226,8 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B48" s="11" t="s">
-        <v>66</v>
-      </c>
+      <c r="A48" s="7"/>
+      <c r="B48" s="11"/>
       <c r="C48" s="6" t="s">
         <v>26</v>
       </c>
@@ -11288,12 +11248,8 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B49" s="11" t="s">
-        <v>64</v>
-      </c>
+      <c r="A49" s="7"/>
+      <c r="B49" s="11"/>
       <c r="C49" s="8" t="s">
         <v>23</v>
       </c>
@@ -11314,12 +11270,8 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B50" s="11" t="s">
-        <v>62</v>
-      </c>
+      <c r="A50" s="7"/>
+      <c r="B50" s="11"/>
       <c r="C50" s="6" t="s">
         <v>20</v>
       </c>
@@ -11340,12 +11292,8 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B51" s="11" t="s">
-        <v>0</v>
-      </c>
+      <c r="A51" s="7"/>
+      <c r="B51" s="11"/>
       <c r="C51" s="8" t="s">
         <v>17</v>
       </c>
@@ -11366,12 +11314,8 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B52" s="11" t="s">
-        <v>59</v>
-      </c>
+      <c r="A52" s="7"/>
+      <c r="B52" s="11"/>
       <c r="C52" s="6" t="s">
         <v>15</v>
       </c>
@@ -11392,12 +11336,8 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B53" s="11" t="s">
-        <v>57</v>
-      </c>
+      <c r="A53" s="7"/>
+      <c r="B53" s="11"/>
       <c r="C53" s="8" t="s">
         <v>12</v>
       </c>
@@ -11418,12 +11358,8 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B54" s="11" t="s">
-        <v>0</v>
-      </c>
+      <c r="A54" s="7"/>
+      <c r="B54" s="11"/>
       <c r="C54" s="6" t="s">
         <v>9</v>
       </c>
@@ -11444,12 +11380,8 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B55" s="11" t="s">
-        <v>54</v>
-      </c>
+      <c r="A55" s="7"/>
+      <c r="B55" s="11"/>
       <c r="C55" s="8" t="s">
         <v>7</v>
       </c>
@@ -11470,12 +11402,8 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B56" s="11" t="s">
-        <v>52</v>
-      </c>
+      <c r="A56" s="7"/>
+      <c r="B56" s="11"/>
       <c r="C56" s="6" t="s">
         <v>4</v>
       </c>
@@ -11496,12 +11424,8 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B57" s="11" t="s">
-        <v>0</v>
-      </c>
+      <c r="A57" s="7"/>
+      <c r="B57" s="11"/>
       <c r="C57" s="8" t="s">
         <v>1</v>
       </c>
@@ -11522,12 +11446,8 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>47</v>
-      </c>
+      <c r="A58" s="7"/>
+      <c r="B58" s="5"/>
       <c r="C58" s="6"/>
       <c r="D58" s="5"/>
       <c r="E58" s="7" t="s">
@@ -11540,12 +11460,8 @@
       <c r="H58" s="5"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>44</v>
-      </c>
+      <c r="A59" s="7"/>
+      <c r="B59" s="5"/>
       <c r="C59" s="8"/>
       <c r="D59" s="5"/>
       <c r="E59" s="7" t="s">
@@ -11558,12 +11474,8 @@
       <c r="H59" s="5"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="A60" s="7"/>
+      <c r="B60" s="5"/>
       <c r="C60" s="6"/>
       <c r="D60" s="5"/>
       <c r="E60" s="7" t="s">
@@ -11576,12 +11488,8 @@
       <c r="H60" s="5"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>39</v>
-      </c>
+      <c r="A61" s="7"/>
+      <c r="B61" s="5"/>
       <c r="C61" s="8"/>
       <c r="D61" s="5"/>
       <c r="E61" s="7" t="s">
@@ -11594,12 +11502,8 @@
       <c r="H61" s="5"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>36</v>
-      </c>
+      <c r="A62" s="7"/>
+      <c r="B62" s="5"/>
       <c r="C62" s="6"/>
       <c r="D62" s="5"/>
       <c r="E62" s="7" t="s">
@@ -11612,12 +11516,8 @@
       <c r="H62" s="5"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="A63" s="7"/>
+      <c r="B63" s="5"/>
       <c r="C63" s="8"/>
       <c r="D63" s="5"/>
       <c r="E63" s="7" t="s">
@@ -11630,12 +11530,8 @@
       <c r="H63" s="5"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>31</v>
-      </c>
+      <c r="A64" s="7"/>
+      <c r="B64" s="5"/>
       <c r="C64" s="6"/>
       <c r="D64" s="10"/>
       <c r="E64" s="7" t="s">
@@ -11648,12 +11544,8 @@
       <c r="H64" s="10"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="A65" s="7"/>
+      <c r="B65" s="5"/>
       <c r="C65" s="8"/>
       <c r="D65" s="10"/>
       <c r="E65" s="7" t="s">
@@ -11666,12 +11558,8 @@
       <c r="H65" s="10"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>25</v>
-      </c>
+      <c r="A66" s="7"/>
+      <c r="B66" s="5"/>
       <c r="C66" s="6"/>
       <c r="D66" s="5"/>
       <c r="E66" s="7" t="s">
@@ -11684,12 +11572,8 @@
       <c r="H66" s="5"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A67" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="A67" s="7"/>
+      <c r="B67" s="5"/>
       <c r="C67" s="8"/>
       <c r="D67" s="9"/>
       <c r="E67" s="7" t="s">
@@ -11702,12 +11586,8 @@
       <c r="H67" s="9"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="A68" s="7"/>
+      <c r="B68" s="5"/>
       <c r="C68" s="6"/>
       <c r="D68" s="9"/>
       <c r="E68" s="7" t="s">
@@ -11720,12 +11600,8 @@
       <c r="H68" s="9"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A69" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="A69" s="7"/>
+      <c r="B69" s="5"/>
       <c r="C69" s="8"/>
       <c r="D69" s="5"/>
       <c r="E69" s="7" t="s">
@@ -11738,12 +11614,8 @@
       <c r="H69" s="5"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="A70" s="7"/>
+      <c r="B70" s="5"/>
       <c r="C70" s="6"/>
       <c r="D70" s="5"/>
       <c r="E70" s="7" t="s">
@@ -11756,12 +11628,8 @@
       <c r="H70" s="5"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A71" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="A71" s="7"/>
+      <c r="B71" s="5"/>
       <c r="C71" s="8"/>
       <c r="D71" s="5"/>
       <c r="E71" s="7" t="s">
@@ -11774,12 +11642,8 @@
       <c r="H71" s="5"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A72" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="A72" s="7"/>
+      <c r="B72" s="5"/>
       <c r="C72" s="6"/>
       <c r="D72" s="5"/>
       <c r="E72" s="7" t="s">
@@ -11792,12 +11656,8 @@
       <c r="H72" s="5"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A73" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>6</v>
-      </c>
+      <c r="A73" s="7"/>
+      <c r="B73" s="5"/>
       <c r="C73" s="8"/>
       <c r="D73" s="5"/>
       <c r="E73" s="7" t="s">
@@ -11810,12 +11670,8 @@
       <c r="H73" s="5"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A74" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="A74" s="7"/>
+      <c r="B74" s="5"/>
       <c r="C74" s="6"/>
       <c r="D74" s="5"/>
       <c r="E74" s="7" t="s">
@@ -11828,12 +11684,8 @@
       <c r="H74" s="5"/>
     </row>
     <row r="75" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A75" s="4"/>
+      <c r="B75" s="2"/>
       <c r="C75" s="3"/>
       <c r="D75" s="2"/>
       <c r="E75" s="4" t="s">
